--- a/picoCTFstatistics.xlsx
+++ b/picoCTFstatistics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\self-teaching\pico-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\self-teaching\pico-ctf-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B85FA-C3B6-4E3E-B8D6-0542BA30E351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACF7094-9014-4D7C-822A-DE5B32822238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94F3C6C6-6E63-4FE4-B952-483621EB51BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="282">
   <si>
     <t>Obedient Cat</t>
   </si>
@@ -870,6 +870,18 @@
   </si>
   <si>
     <t>solfire</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>with help</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
@@ -1252,12 +1264,13 @@
   <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57:L93"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
     <col min="11" max="11" width="38.44140625" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="2"/>
@@ -1270,6 +1283,12 @@
       <c r="B1" t="s">
         <v>34</v>
       </c>
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
+        <v>279</v>
+      </c>
       <c r="F1" t="s">
         <v>35</v>
       </c>
@@ -2217,6 +2236,9 @@
       <c r="B51" s="1">
         <v>100</v>
       </c>
+      <c r="E51" t="s">
+        <v>280</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>129</v>
       </c>
@@ -2419,6 +2441,9 @@
       <c r="B62" s="1">
         <v>200</v>
       </c>
+      <c r="E62" t="s">
+        <v>281</v>
+      </c>
       <c r="F62" s="1" t="s">
         <v>139</v>
       </c>
@@ -2479,6 +2504,9 @@
       <c r="B65" s="1">
         <v>200</v>
       </c>
+      <c r="E65" t="s">
+        <v>281</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>142</v>
       </c>
@@ -2659,6 +2687,9 @@
       <c r="B74" s="1">
         <v>300</v>
       </c>
+      <c r="E74" t="s">
+        <v>281</v>
+      </c>
       <c r="F74" s="1" t="s">
         <v>151</v>
       </c>
@@ -2678,6 +2709,9 @@
       </c>
       <c r="B75" s="1">
         <v>300</v>
+      </c>
+      <c r="E75" t="s">
+        <v>281</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>152</v>
